--- a/biology/Botanique/Protium_altissimum/Protium_altissimum.xlsx
+++ b/biology/Botanique/Protium_altissimum/Protium_altissimum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Protium altissimum est une espèce d'arbres de la famille des Burseraceae.
-Il est connu en Guyane sous les noms de Encens rose, Bois yaya (St-Georges) (Créole), Yaya'ɨ (Wayãpi), Ayay (Palikur), Breu-manga (Portugais)[3], Pirika (Kali'na), Moni, Sali, Lebi sali  (Nenge tongo)[4].
-Au Guyana, on l'appelle Bread and cheese (Créole du Guyana), Haiawaballi (Arawak), Pïrïka (Caribe)[5].
+Il est connu en Guyane sous les noms de Encens rose, Bois yaya (St-Georges) (Créole), Yaya'ɨ (Wayãpi), Ayay (Palikur), Breu-manga (Portugais), Pirika (Kali'na), Moni, Sali, Lebi sali  (Nenge tongo).
+Au Guyana, on l'appelle Bread and cheese (Créole du Guyana), Haiawaballi (Arawak), Pïrïka (Caribe).
 </t>
         </is>
       </c>
@@ -513,14 +525,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Protium altissimum est un arbre atteignant 30 m, doté de contreforts inégaux.
 Ses feuilles imparipennées comptent (5-)7-9(-15) folioles chartacées.
 Ses inflorescences sont des panicules très ramifiés depuis leur base, atteignant jusqu'à 20 cm de long, avec des rachiles pubérulents.
 Le pédicelle est long de 0,2 cm.
 Son fruit est une drupe globuleuse, rouge, glabre, à 2-5 lobes, ou obliquement ovoïde et non lobée, mesurant jusqu'à 3,4 × 4 cm, à base et à apex quelque peu rétus.
-Il contient 1-5 pyrènes ovoïdes déprimés[6].
+Il contient 1-5 pyrènes ovoïdes déprimés.
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le rencontre dans les Guyanes où il est localement abondant dans les forêts tropicales[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le rencontre dans les Guyanes où il est localement abondant dans les forêts tropicales.
 </t>
         </is>
       </c>
@@ -580,10 +596,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Amazonie orientale, T. altissima est un arbre tolérant à l'ombre qui se développe mieux en milieu perturbé qu'en régénération naturelle[7].
-On a étudié sa croissance en diamètre (0,46 cm/an)[8], la répartition spatiale de ses populations dans des forêts fragmentées du Mato Grosso[9], et les modalités de sa dissémination par la faune frugivore (primates et oiseaux) en Guyane[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Amazonie orientale, T. altissima est un arbre tolérant à l'ombre qui se développe mieux en milieu perturbé qu'en régénération naturelle.
+On a étudié sa croissance en diamètre (0,46 cm/an), la répartition spatiale de ses populations dans des forêts fragmentées du Mato Grosso, et les modalités de sa dissémination par la faune frugivore (primates et oiseaux) en Guyane.
 </t>
         </is>
       </c>
@@ -612,13 +630,15 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Guyana, l'arille blanc autour des graines est comestible. La résine crémeuse est parfois brûlée comme encens. Le bois est un bois commercial : il est localement utilisé pour les planches, les meubles, les canots et le bois de chauffage[5].
-Dans les communautés Palikur de Guyane, le bain de décoction d'écorce soigne l'érysipèle en traitement de longue durée[3].
-Associée à l'écorce de Parkia pendula la même décoction est bue deux cuillères le matin, comme contraceptif, ou comme abortif à forte dose[11].
-Chez les Suruí du Rondônia, l'écorce râpée est appliquée localement pour soulager les démangeaisons[12].
-Son bois est utilisé pour faire des pirogues[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Guyana, l'arille blanc autour des graines est comestible. La résine crémeuse est parfois brûlée comme encens. Le bois est un bois commercial : il est localement utilisé pour les planches, les meubles, les canots et le bois de chauffage.
+Dans les communautés Palikur de Guyane, le bain de décoction d'écorce soigne l'érysipèle en traitement de longue durée.
+Associée à l'écorce de Parkia pendula la même décoction est bue deux cuillères le matin, comme contraceptif, ou comme abortif à forte dose.
+Chez les Suruí du Rondônia, l'écorce râpée est appliquée localement pour soulager les démangeaisons.
+Son bois est utilisé pour faire des pirogues.
 </t>
         </is>
       </c>
@@ -647,9 +667,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[13] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « ICICA (altiſſima) foliis ampliuimis, impari-pinnatis 5 fructu racemoſo. (Tabula 132.)
 Arbor ſexaginta-pedali, ad ſummitatem ramoſiſſimo ; ramis latè &amp; undiquè ſparſis ; ramulis folioſis &amp; fructiferis. Folia alterna, impari-pinnata ; foliolis ampliſſimis, rigidis, ovatis, in acumen obtuſum, longum deſinentibus, glabris, integerrimis, ſubſeſſilibus, utrinquè tribus oppoſitis, coſtæ adnexis. Fructus racemoſi. Capsula ſubovata magna, bi, tri, quadri aut ſex-valvis; valvulis carnoſis, extùs verrucoſis, rufeſcencibus. Semina : oſſicula duo, tria aut quatuor, nigra, pulpâ albâ, dulci obvoluta.
 E cortice inciſo ſuccus balſamicus &amp; reſinoſus, odoris grati ſtillat.
